--- a/Лобовое сопротивление Cx(а) (Автосохраненный).xlsx
+++ b/Лобовое сопротивление Cx(а) (Автосохраненный).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeta\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeta\OneDrive\Рабочий стол\BalDyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1176,15 +1175,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3601,15 +3600,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
